--- a/materials/experiments/mfe_final_version/surpriseBlock_select_A.xlsx
+++ b/materials/experiments/mfe_final_version/surpriseBlock_select_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiudit-my.sharepoint.com/personal/kihossei_fiu_edu/Documents/Projects/Psychopy/half_mfeFlanker_version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kihossei/Documents/GitHub/memory-for-error-dataset/materials/experiments/mfe_final_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D10F4D8B-BFF0-194F-9912-8369C5F3EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB165B3-64D7-6340-8FFB-712CC000E966}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB739316-853F-694F-B58D-55A311DBFDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="23880" windowHeight="8900" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>whichSurpriseBlock</t>
   </si>
@@ -78,10 +78,31 @@
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
   </si>
   <si>
-    <t>a_halfV_surpriseTable1.csv</t>
-  </si>
-  <si>
-    <t>a_halfV_surpriseTable2.csv</t>
+    <t>half_surp_table1.csv</t>
+  </si>
+  <si>
+    <t>half_surp_table2.csv</t>
+  </si>
+  <si>
+    <t>instructfrA1</t>
+  </si>
+  <si>
+    <t>instructfrA2</t>
+  </si>
+  <si>
+    <t>FriendlyKey</t>
+  </si>
+  <si>
+    <t>Friendly - Right Key</t>
+  </si>
+  <si>
+    <t>Unfriendly - Left Key</t>
+  </si>
+  <si>
+    <t>Unfriendly - Right Key</t>
+  </si>
+  <si>
+    <t>Friendly - Left Key</t>
   </si>
 </sst>
 </file>
@@ -437,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86DD6-21E5-C74C-9F7E-9BC5FB3C43C9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +471,7 @@
     <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +487,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -483,8 +513,17 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -499,6 +538,15 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/materials/experiments/mfe_final_version/surpriseBlock_select_A.xlsx
+++ b/materials/experiments/mfe_final_version/surpriseBlock_select_A.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kihossei/Documents/GitHub/memory-for-error-dataset/materials/experiments/mfe_final_version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Documents\GitHub\memory-for-error-dataset\materials\experiments\mfe_final_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB739316-853F-694F-B58D-55A311DBFDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A15BB-B020-466C-81DE-D8A34CA8B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="23880" windowHeight="8900" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,45 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>whichSurpriseBlock</t>
   </si>
   <si>
-    <t>instructsurpA1</t>
-  </si>
-  <si>
-    <t>instructsurpA2</t>
-  </si>
-  <si>
-    <t>newKey</t>
-  </si>
-  <si>
     <t>taskTextSource</t>
-  </si>
-  <si>
-    <t>OLD - Right Key</t>
-  </si>
-  <si>
-    <t>NEW - Left Key</t>
-  </si>
-  <si>
-    <t>left</t>
   </si>
   <si>
     <t>In this round, press Right key when the face is OLD and the left key when it is new.
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
   </si>
   <si>
-    <t>NEW - Right Key</t>
-  </si>
-  <si>
-    <t>OLD - Left Key</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>In this round, press Left key when the face is OLD and the Right key when it is new.
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
   </si>
@@ -84,25 +58,67 @@
     <t>half_surp_table2.csv</t>
   </si>
   <si>
-    <t>instructfrA1</t>
-  </si>
-  <si>
-    <t>instructfrA2</t>
-  </si>
-  <si>
-    <t>FriendlyKey</t>
-  </si>
-  <si>
-    <t>Friendly - Right Key</t>
-  </si>
-  <si>
-    <t>Unfriendly - Left Key</t>
-  </si>
-  <si>
-    <t>Unfriendly - Right Key</t>
-  </si>
-  <si>
-    <t>Friendly - Left Key</t>
+    <t>Does this person seem to judge you negatively?</t>
+  </si>
+  <si>
+    <t>firstQ</t>
+  </si>
+  <si>
+    <t>secondQ</t>
+  </si>
+  <si>
+    <t>old or new?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Definitely new", "Probably new", "Maybe new", "Maybe old", "Probably old", "Definitely old"]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Definitely yes", "Probably yes", "Maybe yes", "Maybe no", "Probably no", "Definitely no"]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Definitely no", "Probably no", "Maybe no", "Maybe yes", "Probably yes", "Definitely yes"]  </t>
+  </si>
+  <si>
+    <t>first_posQ</t>
+  </si>
+  <si>
+    <t>first_posScale</t>
+  </si>
+  <si>
+    <t>second_posQ</t>
+  </si>
+  <si>
+    <t>second_posScale</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[6, 5, 4, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[0, -0.2]</t>
+  </si>
+  <si>
+    <t>[0, 0.4]</t>
+  </si>
+  <si>
+    <t>[0, -0.4]</t>
+  </si>
+  <si>
+    <t>[0, 0.2]</t>
+  </si>
+  <si>
+    <t>first_labelsO</t>
+  </si>
+  <si>
+    <t>sec_labelsO</t>
+  </si>
+  <si>
+    <t>first_ticksO</t>
+  </si>
+  <si>
+    <t>second_ticksO</t>
   </si>
 </sst>
 </file>
@@ -458,95 +474,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86DD6-21E5-C74C-9F7E-9BC5FB3C43C9}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.8984375" customWidth="1"/>
+    <col min="3" max="3" width="47.19921875" customWidth="1"/>
+    <col min="4" max="4" width="82.3984375" customWidth="1"/>
+    <col min="5" max="5" width="107.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14.296875" customWidth="1"/>
+    <col min="10" max="10" width="14.09765625" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="12" width="123.3984375" customWidth="1"/>
+    <col min="13" max="13" width="21.69921875" customWidth="1"/>
+    <col min="14" max="14" width="19.19921875" customWidth="1"/>
+    <col min="15" max="15" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/materials/experiments/mfe_final_version/surpriseBlock_select_A.xlsx
+++ b/materials/experiments/mfe_final_version/surpriseBlock_select_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Documents\GitHub\memory-for-error-dataset\materials\experiments\mfe_final_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A15BB-B020-466C-81DE-D8A34CA8B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E6A438-4CC5-41F9-82A0-CA502EC27AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,12 +51,6 @@
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
   </si>
   <si>
-    <t>half_surp_table1.csv</t>
-  </si>
-  <si>
-    <t>half_surp_table2.csv</t>
-  </si>
-  <si>
     <t>Does this person seem to judge you negatively?</t>
   </si>
   <si>
@@ -119,6 +112,12 @@
   </si>
   <si>
     <t>second_ticksO</t>
+  </si>
+  <si>
+    <t>half_surp_table1A.csv</t>
+  </si>
+  <si>
+    <t>half_surp_table2A.csv</t>
   </si>
 </sst>
 </file>
@@ -477,7 +476,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -504,34 +503,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
@@ -539,37 +538,37 @@
     </row>
     <row r="2" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
@@ -577,37 +576,37 @@
     </row>
     <row r="3" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
